--- a/database/industries/zeraat/zegoldasht/cashflow/quarterly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33C5CB-5FA5-422D-A766-21960352F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD2E7E-1D60-4618-92A7-BE53DA2BC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,6 +70,21 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-09-07 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-02-26 (9)</t>
+  </si>
+  <si>
+    <t>1401-06-03 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
     <t>1401-10-29 (2)</t>
   </si>
   <si>
@@ -83,6 +113,9 @@
   </si>
   <si>
     <t>دریافت‌های نقدی حاصل از فروش دارایی‌های زیستی مولد</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>پرداخت‌های نقدی برای خرید دارایی‌های زیستی مولد</t>
@@ -695,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -716,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -738,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -747,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -769,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -778,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -799,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -829,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -840,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>-93117</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1165034</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-1029778</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-98522</v>
+      </c>
+      <c r="H12" s="15">
+        <v>271819</v>
+      </c>
+      <c r="I12" s="15">
         <v>33292</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>560668</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>216810</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>378976</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>-351598</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-216</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-317</v>
+      </c>
+      <c r="I13" s="11">
         <v>-740</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>-1698</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>-93333</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1165034</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-1029778</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-98522</v>
+      </c>
+      <c r="H14" s="17">
+        <v>271502</v>
+      </c>
+      <c r="I14" s="17">
         <v>32552</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>560668</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>216810</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>378976</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>-353296</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11">
+        <v>146398</v>
+      </c>
+      <c r="G15" s="11">
+        <v>68355</v>
+      </c>
+      <c r="H15" s="11">
+        <v>34436</v>
+      </c>
+      <c r="I15" s="11">
         <v>71953</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>237894</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>68491</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>96466</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>121668</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-309320</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-116094</v>
+      </c>
+      <c r="H16" s="15">
+        <v>-162567</v>
+      </c>
+      <c r="I16" s="15">
         <v>-162189</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>-676270</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>-458436</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>-202810</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>403359</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -956,52 +1141,87 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>0</v>
+        <v>29460</v>
       </c>
       <c r="E18" s="15">
+        <v>38785</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-91122</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
         <v>-174744</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>-434634</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-2048705</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1443660</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-410562</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-405475</v>
+      </c>
+      <c r="I19" s="11">
         <v>-444413</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>63376</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>-380984</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>-195532</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1019,10 +1239,25 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1040,31 +1275,61 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>-52984</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>-10823</v>
+      </c>
+      <c r="I22" s="15">
         <v>-500</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>-8287</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>-99</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1082,10 +1347,25 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1103,10 +1383,25 @@
       <c r="H24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1122,12 +1417,27 @@
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1137,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
@@ -1145,10 +1455,25 @@
       <c r="H26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1166,31 +1491,61 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
         <v>-4390</v>
       </c>
-      <c r="E28" s="15">
+      <c r="J28" s="15">
         <v>4390</v>
       </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1208,10 +1563,25 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1229,10 +1599,25 @@
       <c r="H30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
@@ -1250,10 +1635,25 @@
       <c r="H31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15">
@@ -1271,73 +1671,133 @@
       <c r="H32" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
+        <v>982</v>
+      </c>
+      <c r="E33" s="11">
+        <v>265</v>
+      </c>
+      <c r="F33" s="11">
+        <v>96</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4617</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1206</v>
+      </c>
+      <c r="I33" s="11">
         <v>794</v>
       </c>
-      <c r="E33" s="11">
+      <c r="J33" s="11">
         <v>-416</v>
       </c>
-      <c r="F33" s="11">
+      <c r="K33" s="11">
         <v>157</v>
       </c>
-      <c r="G33" s="11">
+      <c r="L33" s="11">
         <v>205</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17">
+        <v>-404192</v>
+      </c>
+      <c r="E34" s="17">
+        <v>-2009655</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1086728</v>
+      </c>
+      <c r="G34" s="17">
+        <v>-453684</v>
+      </c>
+      <c r="H34" s="17">
+        <v>-493223</v>
+      </c>
+      <c r="I34" s="17">
         <v>-538745</v>
       </c>
-      <c r="E34" s="17">
+      <c r="J34" s="17">
         <v>-554057</v>
       </c>
-      <c r="F34" s="17">
+      <c r="K34" s="17">
         <v>-770772</v>
       </c>
-      <c r="G34" s="17">
+      <c r="L34" s="17">
         <v>-301770</v>
       </c>
-      <c r="H34" s="17">
+      <c r="M34" s="17">
         <v>525544</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
+        <v>-497525</v>
+      </c>
+      <c r="E35" s="19">
+        <v>-844621</v>
+      </c>
+      <c r="F35" s="19">
+        <v>56950</v>
+      </c>
+      <c r="G35" s="19">
+        <v>-552206</v>
+      </c>
+      <c r="H35" s="19">
+        <v>-221721</v>
+      </c>
+      <c r="I35" s="19">
         <v>-506193</v>
       </c>
-      <c r="E35" s="19">
+      <c r="J35" s="19">
         <v>6611</v>
       </c>
-      <c r="F35" s="19">
+      <c r="K35" s="19">
         <v>-553962</v>
       </c>
-      <c r="G35" s="19">
+      <c r="L35" s="19">
         <v>77206</v>
       </c>
-      <c r="H35" s="19">
+      <c r="M35" s="19">
         <v>172248</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1345,38 +1805,58 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>87755</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
         <v>59653</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1387,10 +1867,25 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1408,52 +1903,97 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>-7330</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>245250</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1018600</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-195000</v>
+      </c>
+      <c r="G41" s="15">
+        <v>636945</v>
+      </c>
+      <c r="H41" s="15">
+        <v>125245</v>
+      </c>
+      <c r="I41" s="15">
         <v>625000</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>117992</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>450000</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>20000</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1463,39 +2003,69 @@
         <v>0</v>
       </c>
       <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
         <v>-38201</v>
       </c>
-      <c r="G42" s="11">
+      <c r="L42" s="11">
         <v>-46529</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>-160445</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
         <v>-5565</v>
       </c>
-      <c r="E43" s="15">
+      <c r="J43" s="15">
         <v>5565</v>
       </c>
-      <c r="F43" s="15">
+      <c r="K43" s="15">
         <v>-20739</v>
       </c>
-      <c r="G43" s="15">
+      <c r="L43" s="15">
         <v>-8479</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>-9237</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1513,10 +2083,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1534,10 +2119,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1555,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1576,10 +2191,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1597,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1618,10 +2263,25 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -1639,10 +2299,25 @@
       <c r="H50" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1660,136 +2335,241 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
+        <v>-658</v>
+      </c>
+      <c r="E52" s="11">
+        <v>-31013</v>
+      </c>
+      <c r="F52" s="11">
+        <v>-12426</v>
+      </c>
+      <c r="G52" s="11">
+        <v>-13881</v>
+      </c>
+      <c r="H52" s="11">
+        <v>-966</v>
+      </c>
+      <c r="I52" s="11">
         <v>-128809</v>
       </c>
-      <c r="E52" s="11">
+      <c r="J52" s="11">
         <v>-132097</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>-1513</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>-14</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
+        <v>247729</v>
+      </c>
+      <c r="E53" s="17">
+        <v>987587</v>
+      </c>
+      <c r="F53" s="17">
+        <v>-207426</v>
+      </c>
+      <c r="G53" s="17">
+        <v>623064</v>
+      </c>
+      <c r="H53" s="17">
+        <v>212034</v>
+      </c>
+      <c r="I53" s="17">
         <v>490626</v>
       </c>
-      <c r="E53" s="17">
+      <c r="J53" s="17">
         <v>43783</v>
       </c>
-      <c r="F53" s="17">
+      <c r="K53" s="17">
         <v>389547</v>
       </c>
-      <c r="G53" s="17">
+      <c r="L53" s="17">
         <v>-35022</v>
       </c>
-      <c r="H53" s="17">
+      <c r="M53" s="17">
         <v>-169682</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
+        <v>-252933</v>
+      </c>
+      <c r="E54" s="19">
+        <v>142966</v>
+      </c>
+      <c r="F54" s="19">
+        <v>-150476</v>
+      </c>
+      <c r="G54" s="19">
+        <v>70858</v>
+      </c>
+      <c r="H54" s="19">
+        <v>-9687</v>
+      </c>
+      <c r="I54" s="19">
         <v>-15567</v>
       </c>
-      <c r="E54" s="19">
+      <c r="J54" s="19">
         <v>50394</v>
       </c>
-      <c r="F54" s="19">
+      <c r="K54" s="19">
         <v>-164415</v>
       </c>
-      <c r="G54" s="19">
+      <c r="L54" s="19">
         <v>42184</v>
       </c>
-      <c r="H54" s="19">
+      <c r="M54" s="19">
         <v>2566</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
+        <v>377350</v>
+      </c>
+      <c r="E55" s="15">
+        <v>124597</v>
+      </c>
+      <c r="F55" s="15">
+        <v>267563</v>
+      </c>
+      <c r="G55" s="15">
+        <v>117028</v>
+      </c>
+      <c r="H55" s="15">
+        <v>187886</v>
+      </c>
+      <c r="I55" s="15">
         <v>178240</v>
       </c>
-      <c r="E55" s="15">
+      <c r="J55" s="15">
         <v>162673</v>
       </c>
-      <c r="F55" s="15">
+      <c r="K55" s="15">
         <v>213034</v>
       </c>
-      <c r="G55" s="15">
+      <c r="L55" s="15">
         <v>48619</v>
       </c>
-      <c r="H55" s="15">
+      <c r="M55" s="15">
         <v>90825</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>-59</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>41</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
         <v>-33</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
         <v>22</v>
       </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>124597</v>
+      </c>
+      <c r="E57" s="17">
+        <v>267563</v>
+      </c>
+      <c r="F57" s="17">
+        <v>117028</v>
+      </c>
+      <c r="G57" s="17">
+        <v>187886</v>
+      </c>
+      <c r="H57" s="17">
+        <v>178240</v>
+      </c>
+      <c r="I57" s="17">
         <v>162673</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>213034</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>48619</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>90825</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>93391</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
@@ -1802,13 +2582,28 @@
         <v>0</v>
       </c>
       <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>312592</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
         <v>4460</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1816,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/zegoldasht/cashflow/quarterly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD2E7E-1D60-4618-92A7-BE53DA2BC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140727B-6421-4A98-8F05-CA3EE9D3DC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-07 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-29 (8)</t>
   </si>
   <si>
     <t>1401-06-03 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,49 +952,49 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>-93117</v>
+        <v>1165034</v>
       </c>
       <c r="E12" s="15">
-        <v>1165034</v>
+        <v>-1029778</v>
       </c>
       <c r="F12" s="15">
-        <v>-1029778</v>
+        <v>-98522</v>
       </c>
       <c r="G12" s="15">
-        <v>-98522</v>
+        <v>271819</v>
       </c>
       <c r="H12" s="15">
-        <v>271819</v>
+        <v>33292</v>
       </c>
       <c r="I12" s="15">
-        <v>33292</v>
+        <v>560668</v>
       </c>
       <c r="J12" s="15">
-        <v>560668</v>
+        <v>216810</v>
       </c>
       <c r="K12" s="15">
-        <v>216810</v>
+        <v>378976</v>
       </c>
       <c r="L12" s="15">
-        <v>378976</v>
+        <v>-351598</v>
       </c>
       <c r="M12" s="15">
-        <v>-351598</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1214491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
@@ -1002,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-317</v>
       </c>
       <c r="H13" s="11">
-        <v>-317</v>
+        <v>-740</v>
       </c>
       <c r="I13" s="11">
-        <v>-740</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1017,49 +1018,49 @@
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>-1698</v>
       </c>
       <c r="M13" s="11">
-        <v>-1698</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>-93333</v>
+        <v>1165034</v>
       </c>
       <c r="E14" s="17">
-        <v>1165034</v>
+        <v>-1029778</v>
       </c>
       <c r="F14" s="17">
-        <v>-1029778</v>
+        <v>-98522</v>
       </c>
       <c r="G14" s="17">
-        <v>-98522</v>
+        <v>271502</v>
       </c>
       <c r="H14" s="17">
-        <v>271502</v>
+        <v>32552</v>
       </c>
       <c r="I14" s="17">
-        <v>32552</v>
+        <v>560668</v>
       </c>
       <c r="J14" s="17">
-        <v>560668</v>
+        <v>216810</v>
       </c>
       <c r="K14" s="17">
-        <v>216810</v>
+        <v>378976</v>
       </c>
       <c r="L14" s="17">
-        <v>378976</v>
+        <v>-353296</v>
       </c>
       <c r="M14" s="17">
-        <v>-353296</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1214491</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1067,35 +1068,35 @@
       <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>31</v>
+      <c r="E15" s="11">
+        <v>146398</v>
       </c>
       <c r="F15" s="11">
-        <v>146398</v>
+        <v>68355</v>
       </c>
       <c r="G15" s="11">
-        <v>68355</v>
+        <v>34436</v>
       </c>
       <c r="H15" s="11">
-        <v>34436</v>
+        <v>71953</v>
       </c>
       <c r="I15" s="11">
-        <v>71953</v>
+        <v>63150</v>
       </c>
       <c r="J15" s="11">
-        <v>237894</v>
+        <v>68491</v>
       </c>
       <c r="K15" s="11">
-        <v>68491</v>
+        <v>96466</v>
       </c>
       <c r="L15" s="11">
-        <v>96466</v>
+        <v>121668</v>
       </c>
       <c r="M15" s="11">
-        <v>121668</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>155505</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
@@ -1103,35 +1104,35 @@
       <c r="D16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
+      <c r="E16" s="15">
+        <v>-309320</v>
       </c>
       <c r="F16" s="15">
-        <v>-309320</v>
+        <v>-116094</v>
       </c>
       <c r="G16" s="15">
-        <v>-116094</v>
+        <v>-162567</v>
       </c>
       <c r="H16" s="15">
-        <v>-162567</v>
+        <v>-162189</v>
       </c>
       <c r="I16" s="15">
-        <v>-162189</v>
+        <v>-235420</v>
       </c>
       <c r="J16" s="15">
-        <v>-676270</v>
+        <v>-458436</v>
       </c>
       <c r="K16" s="15">
-        <v>-458436</v>
+        <v>-202810</v>
       </c>
       <c r="L16" s="15">
-        <v>-202810</v>
+        <v>403359</v>
       </c>
       <c r="M16" s="15">
-        <v>403359</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1209248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1147,19 +1148,19 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>29460</v>
+        <v>38785</v>
       </c>
       <c r="E18" s="15">
-        <v>38785</v>
+        <v>-91122</v>
       </c>
       <c r="F18" s="15">
-        <v>-91122</v>
+        <v>0</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <v>-174744</v>
+        <v>0</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
@@ -1180,46 +1181,46 @@
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>-434634</v>
+        <v>-2048705</v>
       </c>
       <c r="E19" s="11">
-        <v>-2048705</v>
+        <v>1443660</v>
       </c>
       <c r="F19" s="11">
-        <v>1443660</v>
+        <v>-410562</v>
       </c>
       <c r="G19" s="11">
-        <v>-410562</v>
+        <v>-405475</v>
       </c>
       <c r="H19" s="11">
-        <v>-405475</v>
+        <v>-444413</v>
       </c>
       <c r="I19" s="11">
-        <v>-444413</v>
+        <v>-377474</v>
       </c>
       <c r="J19" s="11">
-        <v>63376</v>
+        <v>-380984</v>
       </c>
       <c r="K19" s="11">
-        <v>-380984</v>
+        <v>-195532</v>
       </c>
       <c r="L19" s="11">
-        <v>-195532</v>
+        <v>0</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-337751</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -1300,34 +1301,34 @@
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <v>0</v>
+        <v>-52984</v>
       </c>
       <c r="F22" s="15">
-        <v>-52984</v>
+        <v>0</v>
       </c>
       <c r="G22" s="15">
-        <v>0</v>
+        <v>-10823</v>
       </c>
       <c r="H22" s="15">
-        <v>-10823</v>
+        <v>-500</v>
       </c>
       <c r="I22" s="15">
-        <v>-500</v>
+        <v>-8287</v>
       </c>
       <c r="J22" s="15">
-        <v>-8287</v>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="L22" s="15">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>40</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1414,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H25" s="11">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
@@ -1435,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1444,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="F26" s="15">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
@@ -1471,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>44</v>
       </c>
@@ -1525,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <v>0</v>
+        <v>-4390</v>
       </c>
       <c r="I28" s="15">
-        <v>-4390</v>
+        <v>4390</v>
       </c>
       <c r="J28" s="15">
-        <v>4390</v>
+        <v>0</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>
@@ -1543,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
@@ -1687,115 +1688,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
-        <v>982</v>
+        <v>265</v>
       </c>
       <c r="E33" s="11">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="F33" s="11">
-        <v>96</v>
+        <v>4617</v>
       </c>
       <c r="G33" s="11">
-        <v>4617</v>
+        <v>1206</v>
       </c>
       <c r="H33" s="11">
-        <v>1206</v>
+        <v>794</v>
       </c>
       <c r="I33" s="11">
-        <v>794</v>
+        <v>-416</v>
       </c>
       <c r="J33" s="11">
-        <v>-416</v>
+        <v>157</v>
       </c>
       <c r="K33" s="11">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="L33" s="11">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="M33" s="11">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17">
-        <v>-404192</v>
+        <v>-2009655</v>
       </c>
       <c r="E34" s="17">
-        <v>-2009655</v>
+        <v>1086728</v>
       </c>
       <c r="F34" s="17">
-        <v>1086728</v>
+        <v>-453684</v>
       </c>
       <c r="G34" s="17">
-        <v>-453684</v>
+        <v>-493223</v>
       </c>
       <c r="H34" s="17">
-        <v>-493223</v>
+        <v>-538745</v>
       </c>
       <c r="I34" s="17">
-        <v>-538745</v>
+        <v>-554057</v>
       </c>
       <c r="J34" s="17">
-        <v>-554057</v>
+        <v>-770772</v>
       </c>
       <c r="K34" s="17">
-        <v>-770772</v>
+        <v>-301770</v>
       </c>
       <c r="L34" s="17">
-        <v>-301770</v>
+        <v>525544</v>
       </c>
       <c r="M34" s="17">
-        <v>525544</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1383437</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
-        <v>-497525</v>
+        <v>-844621</v>
       </c>
       <c r="E35" s="19">
-        <v>-844621</v>
+        <v>56950</v>
       </c>
       <c r="F35" s="19">
-        <v>56950</v>
+        <v>-552206</v>
       </c>
       <c r="G35" s="19">
-        <v>-552206</v>
+        <v>-221721</v>
       </c>
       <c r="H35" s="19">
-        <v>-221721</v>
+        <v>-506193</v>
       </c>
       <c r="I35" s="19">
-        <v>-506193</v>
+        <v>6611</v>
       </c>
       <c r="J35" s="19">
-        <v>6611</v>
+        <v>-553962</v>
       </c>
       <c r="K35" s="19">
-        <v>-553962</v>
+        <v>77206</v>
       </c>
       <c r="L35" s="19">
-        <v>77206</v>
+        <v>172248</v>
       </c>
       <c r="M35" s="19">
-        <v>172248</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-168946</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>52</v>
       </c>
@@ -1811,7 +1812,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1826,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>87755</v>
       </c>
       <c r="H37" s="15">
-        <v>87755</v>
+        <v>0</v>
       </c>
       <c r="I37" s="15">
-        <v>0</v>
+        <v>59653</v>
       </c>
       <c r="J37" s="15">
-        <v>59653</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
         <v>0</v>
@@ -1847,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1855,8 +1856,8 @@
       <c r="D38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>31</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1883,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1940,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>-7330</v>
       </c>
       <c r="J40" s="11">
-        <v>-7330</v>
+        <v>0</v>
       </c>
       <c r="K40" s="11">
         <v>0</v>
@@ -1955,43 +1956,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>245250</v>
+        <v>1018600</v>
       </c>
       <c r="E41" s="15">
-        <v>1018600</v>
+        <v>-195000</v>
       </c>
       <c r="F41" s="15">
-        <v>-195000</v>
+        <v>636945</v>
       </c>
       <c r="G41" s="15">
-        <v>636945</v>
+        <v>125245</v>
       </c>
       <c r="H41" s="15">
-        <v>125245</v>
+        <v>625000</v>
       </c>
       <c r="I41" s="15">
-        <v>625000</v>
+        <v>117992</v>
       </c>
       <c r="J41" s="15">
-        <v>117992</v>
+        <v>450000</v>
       </c>
       <c r="K41" s="15">
-        <v>450000</v>
+        <v>20000</v>
       </c>
       <c r="L41" s="15">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>788694</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2015,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="11">
-        <v>0</v>
+        <v>-38201</v>
       </c>
       <c r="K42" s="11">
-        <v>-38201</v>
+        <v>-46529</v>
       </c>
       <c r="L42" s="11">
-        <v>-46529</v>
+        <v>-160445</v>
       </c>
       <c r="M42" s="11">
-        <v>-160445</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-293765</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2045,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>-5565</v>
       </c>
       <c r="I43" s="15">
-        <v>-5565</v>
+        <v>5565</v>
       </c>
       <c r="J43" s="15">
-        <v>5565</v>
+        <v>-20739</v>
       </c>
       <c r="K43" s="15">
-        <v>-20739</v>
+        <v>-8479</v>
       </c>
       <c r="L43" s="15">
-        <v>-8479</v>
+        <v>-9237</v>
       </c>
       <c r="M43" s="15">
-        <v>-9237</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-67836</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,223 +2352,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>-658</v>
+        <v>-31013</v>
       </c>
       <c r="E52" s="11">
-        <v>-31013</v>
+        <v>-12426</v>
       </c>
       <c r="F52" s="11">
-        <v>-12426</v>
+        <v>-13881</v>
       </c>
       <c r="G52" s="11">
-        <v>-13881</v>
+        <v>-966</v>
       </c>
       <c r="H52" s="11">
-        <v>-966</v>
+        <v>-128809</v>
       </c>
       <c r="I52" s="11">
-        <v>-128809</v>
+        <v>-132097</v>
       </c>
       <c r="J52" s="11">
-        <v>-132097</v>
+        <v>-1513</v>
       </c>
       <c r="K52" s="11">
-        <v>-1513</v>
+        <v>-14</v>
       </c>
       <c r="L52" s="11">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="M52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-162442</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
-        <v>247729</v>
+        <v>987587</v>
       </c>
       <c r="E53" s="17">
-        <v>987587</v>
+        <v>-207426</v>
       </c>
       <c r="F53" s="17">
-        <v>-207426</v>
+        <v>623064</v>
       </c>
       <c r="G53" s="17">
-        <v>623064</v>
+        <v>212034</v>
       </c>
       <c r="H53" s="17">
-        <v>212034</v>
+        <v>490626</v>
       </c>
       <c r="I53" s="17">
-        <v>490626</v>
+        <v>43783</v>
       </c>
       <c r="J53" s="17">
-        <v>43783</v>
+        <v>389547</v>
       </c>
       <c r="K53" s="17">
-        <v>389547</v>
+        <v>-35022</v>
       </c>
       <c r="L53" s="17">
-        <v>-35022</v>
+        <v>-169682</v>
       </c>
       <c r="M53" s="17">
-        <v>-169682</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>264651</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
-        <v>-252933</v>
+        <v>142966</v>
       </c>
       <c r="E54" s="19">
-        <v>142966</v>
+        <v>-150476</v>
       </c>
       <c r="F54" s="19">
-        <v>-150476</v>
+        <v>70858</v>
       </c>
       <c r="G54" s="19">
-        <v>70858</v>
+        <v>-9687</v>
       </c>
       <c r="H54" s="19">
-        <v>-9687</v>
+        <v>-15567</v>
       </c>
       <c r="I54" s="19">
-        <v>-15567</v>
+        <v>50394</v>
       </c>
       <c r="J54" s="19">
-        <v>50394</v>
+        <v>-164415</v>
       </c>
       <c r="K54" s="19">
-        <v>-164415</v>
+        <v>42184</v>
       </c>
       <c r="L54" s="19">
-        <v>42184</v>
+        <v>2566</v>
       </c>
       <c r="M54" s="19">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>95705</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
-        <v>377350</v>
+        <v>124597</v>
       </c>
       <c r="E55" s="15">
-        <v>124597</v>
+        <v>267563</v>
       </c>
       <c r="F55" s="15">
-        <v>267563</v>
+        <v>117028</v>
       </c>
       <c r="G55" s="15">
-        <v>117028</v>
+        <v>187886</v>
       </c>
       <c r="H55" s="15">
-        <v>187886</v>
+        <v>178240</v>
       </c>
       <c r="I55" s="15">
-        <v>178240</v>
+        <v>162673</v>
       </c>
       <c r="J55" s="15">
-        <v>162673</v>
+        <v>213034</v>
       </c>
       <c r="K55" s="15">
-        <v>213034</v>
+        <v>48619</v>
       </c>
       <c r="L55" s="15">
-        <v>48619</v>
+        <v>90825</v>
       </c>
       <c r="M55" s="15">
-        <v>90825</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>93391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="F56" s="11">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H56" s="11">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="J56" s="11">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="K56" s="11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L56" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>124597</v>
+        <v>267563</v>
       </c>
       <c r="E57" s="17">
-        <v>267563</v>
+        <v>117028</v>
       </c>
       <c r="F57" s="17">
-        <v>117028</v>
+        <v>187886</v>
       </c>
       <c r="G57" s="17">
-        <v>187886</v>
+        <v>178240</v>
       </c>
       <c r="H57" s="17">
-        <v>178240</v>
+        <v>162673</v>
       </c>
       <c r="I57" s="17">
-        <v>162673</v>
+        <v>213034</v>
       </c>
       <c r="J57" s="17">
-        <v>213034</v>
+        <v>48619</v>
       </c>
       <c r="K57" s="17">
-        <v>48619</v>
+        <v>90825</v>
       </c>
       <c r="L57" s="17">
-        <v>90825</v>
+        <v>93391</v>
       </c>
       <c r="M57" s="17">
-        <v>93391</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>189242</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
@@ -2582,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>312592</v>
       </c>
       <c r="H58" s="11">
-        <v>312592</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -2594,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="K58" s="11">
-        <v>0</v>
+        <v>4460</v>
       </c>
       <c r="L58" s="11">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="M58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
